--- a/data/trans_orig/ProblemasDormirP33b-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>118876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100064</v>
+        <v>100600</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139498</v>
+        <v>141490</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2383522099724182</v>
+        <v>0.2383522099724183</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2006347286275395</v>
+        <v>0.2017087076937534</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2797023014222681</v>
+        <v>0.2836962797700977</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>341</v>
@@ -762,19 +762,19 @@
         <v>229653</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209941</v>
+        <v>207669</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>251376</v>
+        <v>251904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3682818116286757</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3366703074270045</v>
+        <v>0.3330273139385343</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4031172902233496</v>
+        <v>0.4039635242748022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>466</v>
@@ -783,19 +783,19 @@
         <v>348529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>319173</v>
+        <v>318026</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>377534</v>
+        <v>379928</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3105433534696716</v>
+        <v>0.3105433534696717</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2843867918219385</v>
+        <v>0.2833647422220025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3363867020686155</v>
+        <v>0.3385203707815248</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>379863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>359241</v>
+        <v>357249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>398675</v>
+        <v>398139</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7616477900275818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7202976985777316</v>
+        <v>0.7163037202299024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7993652713724605</v>
+        <v>0.7982912923062467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>520</v>
@@ -833,19 +833,19 @@
         <v>393927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>372204</v>
+        <v>371676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>413639</v>
+        <v>415911</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6317181883713241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5968827097766501</v>
+        <v>0.5960364757251979</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6633296925729952</v>
+        <v>0.6669726860614658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>850</v>
@@ -854,19 +854,19 @@
         <v>773791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744786</v>
+        <v>742392</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>803147</v>
+        <v>804294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6894566465303285</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6636132979313845</v>
+        <v>0.6614796292184754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7156132081780615</v>
+        <v>0.7166352577779975</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>130877</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110367</v>
+        <v>111037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151431</v>
+        <v>153838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1363103478863127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1149491070577761</v>
+        <v>0.1156468956161605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1577176785504696</v>
+        <v>0.1602247396585195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>395</v>
@@ -979,19 +979,19 @@
         <v>249154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>226933</v>
+        <v>226760</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>274382</v>
+        <v>274351</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2232869289342264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2033724594702947</v>
+        <v>0.203217640296819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2458949257009535</v>
+        <v>0.2458677242936968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>552</v>
@@ -1000,19 +1000,19 @@
         <v>380031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>351228</v>
+        <v>348581</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413802</v>
+        <v>412308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1830605468680729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1691862153125694</v>
+        <v>0.1679112024823182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1993280649711887</v>
+        <v>0.1986084781542534</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>829260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>808706</v>
+        <v>806299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>849770</v>
+        <v>849100</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8636896521136875</v>
+        <v>0.8636896521136873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8422823214495304</v>
+        <v>0.8397752603414802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8850508929422239</v>
+        <v>0.8843531043838394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1212</v>
@@ -1050,19 +1050,19 @@
         <v>866695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>841467</v>
+        <v>841498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>888916</v>
+        <v>889089</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7767130710657736</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7541050742990465</v>
+        <v>0.7541322757063031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7966275405297054</v>
+        <v>0.796782359703181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1965</v>
@@ -1071,19 +1071,19 @@
         <v>1695955</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1662184</v>
+        <v>1663678</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1724758</v>
+        <v>1727405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8169394531319272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8006719350288111</v>
+        <v>0.8013915218457467</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8308137846874305</v>
+        <v>0.8320887975176817</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>100777</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82436</v>
+        <v>83044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122647</v>
+        <v>123079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09630083710130755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07877459613929662</v>
+        <v>0.07935550745616426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.117199473298405</v>
+        <v>0.1176121276060306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -1196,19 +1196,19 @@
         <v>152524</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134532</v>
+        <v>132393</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173411</v>
+        <v>171863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1455881675322252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1284141486368853</v>
+        <v>0.1263725879190992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1655246111627832</v>
+        <v>0.164047157123292</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>345</v>
@@ -1217,19 +1217,19 @@
         <v>253301</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>226201</v>
+        <v>225231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285434</v>
+        <v>282413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1209581809650871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1080169955131308</v>
+        <v>0.1075539710755735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1363023458435264</v>
+        <v>0.1348598924024836</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>945702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>923832</v>
+        <v>923400</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>964043</v>
+        <v>963435</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9036991628986926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8828005267015948</v>
+        <v>0.8823878723939694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9212254038607035</v>
+        <v>0.9206444925438358</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1285</v>
@@ -1267,19 +1267,19 @@
         <v>895118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>874231</v>
+        <v>875779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>913110</v>
+        <v>915249</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8544118324677749</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8344753888372168</v>
+        <v>0.835952842876708</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8715858513631146</v>
+        <v>0.8736274120809008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2200</v>
@@ -1288,19 +1288,19 @@
         <v>1840820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1808687</v>
+        <v>1811708</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1867920</v>
+        <v>1868890</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8790418190349129</v>
+        <v>0.879041819034913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8636976541564736</v>
+        <v>0.8651401075975163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8919830044868692</v>
+        <v>0.8924460289244264</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>100091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81927</v>
+        <v>82644</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124906</v>
+        <v>125492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1025598548753733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08394784643126295</v>
+        <v>0.08468282510410149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1279864319625017</v>
+        <v>0.1285868277145084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -1413,19 +1413,19 @@
         <v>139315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121024</v>
+        <v>120496</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159652</v>
+        <v>158462</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1530352263796787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1329428904707291</v>
+        <v>0.1323631660810889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1753748016060397</v>
+        <v>0.1740678971113971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>294</v>
@@ -1434,19 +1434,19 @@
         <v>239406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>212526</v>
+        <v>212075</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>267986</v>
+        <v>267912</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1269200470459335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1126698925098394</v>
+        <v>0.1124304930654621</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1420716744057339</v>
+        <v>0.1420325883161798</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>875838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>851023</v>
+        <v>850437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>894002</v>
+        <v>893285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8974401451246268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8720135680374983</v>
+        <v>0.8714131722854909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9160521535687373</v>
+        <v>0.9153171748958987</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1124</v>
@@ -1484,19 +1484,19 @@
         <v>771030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>750693</v>
+        <v>751883</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>789321</v>
+        <v>789849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8469647736203213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8246251983939602</v>
+        <v>0.825932102888603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8670571095292706</v>
+        <v>0.867636833918911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1977</v>
@@ -1505,19 +1505,19 @@
         <v>1646868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1618288</v>
+        <v>1618362</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1673748</v>
+        <v>1674199</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8730799529540665</v>
+        <v>0.8730799529540667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8579283255942663</v>
+        <v>0.85796741168382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8873301074901604</v>
+        <v>0.8875695069345378</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>450620</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>411062</v>
+        <v>408764</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>493787</v>
+        <v>490114</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1294407800579111</v>
+        <v>0.1294407800579112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1180776083385979</v>
+        <v>0.1174177099538151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1418405511370399</v>
+        <v>0.1407852739403516</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1167</v>
@@ -1630,19 +1630,19 @@
         <v>770647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>732402</v>
+        <v>729237</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>815733</v>
+        <v>813563</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2084285025840509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1980848980028645</v>
+        <v>0.1972288505837677</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2206223967721457</v>
+        <v>0.2200355954682491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1657</v>
@@ -1651,19 +1651,19 @@
         <v>1221267</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1162126</v>
+        <v>1163341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1278417</v>
+        <v>1284899</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1701236972545953</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1618852573425415</v>
+        <v>0.1620544651002724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1780846648006381</v>
+        <v>0.1789876254341248</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3030664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2987497</v>
+        <v>2991170</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3070222</v>
+        <v>3072520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8705592199420888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8581594488629599</v>
+        <v>0.8592147260596483</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8819223916614022</v>
+        <v>0.8825822900461847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4141</v>
@@ -1701,19 +1701,19 @@
         <v>2926769</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2881683</v>
+        <v>2883853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2965014</v>
+        <v>2968179</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.791571497415949</v>
+        <v>0.7915714974159491</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7793776032278545</v>
+        <v>0.779964404531751</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8019151019971358</v>
+        <v>0.8027711494162325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6992</v>
@@ -1722,19 +1722,19 @@
         <v>5957434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5900284</v>
+        <v>5893802</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6016575</v>
+        <v>6015360</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8298763027454047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8219153351993623</v>
+        <v>0.8210123745658753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8381147426574586</v>
+        <v>0.8379455348997277</v>
       </c>
     </row>
     <row r="18">
